--- a/Projetos/Seguidor de Linha Otimizado - SLO/planejamento - SLO.xlsx
+++ b/Projetos/Seguidor de Linha Otimizado - SLO/planejamento - SLO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Descrição</t>
   </si>
@@ -97,10 +97,6 @@
     <t>Construir Pista Modular</t>
   </si>
   <si>
-    <t>Definir o tamanho e formato da pista (vai ser em sala ou anfiteatro?)
-Definir o design da pista (formato, encaixes e material). Cortar e montar as partes.</t>
-  </si>
-  <si>
     <t>Luan</t>
   </si>
   <si>
@@ -116,6 +112,13 @@
   </si>
   <si>
     <t>Apresentar as melhorias implementadas no robô seguidor de linha</t>
+  </si>
+  <si>
+    <t>Pegar modelo do manual do mundo</t>
+  </si>
+  <si>
+    <t>Definir o tamanho e formato da pista (vai ser em sala ou hall do bloco H?)
+Definir o design da pista (formato, encaixes e material). Cortar e montar as partes.</t>
   </si>
 </sst>
 </file>
@@ -578,15 +581,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>207352</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>93509</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>416902</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>255434</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -642,15 +645,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>204972</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>71162</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>395472</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>269722</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -706,15 +709,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>199018</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>148461</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>389518</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>329436</xdr:rowOff>
+          <xdr:rowOff>333375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -772,13 +775,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>56875</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>409575</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>245909</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -834,15 +837,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>207352</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>312402</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>397852</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>189493</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -898,15 +901,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>210924</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>56875</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>401424</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>237850</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -962,15 +965,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>197644</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>67408</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>388144</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>248383</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1026,15 +1029,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>216877</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>312401</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>407377</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>189492</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1090,15 +1093,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>203596</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>44602</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>453627</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>304498</xdr:rowOff>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1355,8 +1358,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1372,7 @@
     <col min="6" max="6" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1428,9 @@
       <c r="E3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1468,7 +1473,7 @@
         <v>45722</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="24" t="b">
         <v>0</v>
@@ -1477,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="26"/>
     </row>
@@ -1495,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="26"/>
     </row>
@@ -1513,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="26"/>
     </row>
@@ -1531,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -1549,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="26"/>
     </row>

--- a/Projetos/Seguidor de Linha Otimizado - SLO/planejamento - SLO.xlsx
+++ b/Projetos/Seguidor de Linha Otimizado - SLO/planejamento - SLO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Descrição</t>
   </si>
@@ -119,6 +119,12 @@
   <si>
     <t>Definir o tamanho e formato da pista (vai ser em sala ou hall do bloco H?)
 Definir o design da pista (formato, encaixes e material). Cortar e montar as partes.</t>
+  </si>
+  <si>
+    <t>Remodelar carrinho no CAD</t>
+  </si>
+  <si>
+    <t>Refazer no CAD o esquemático trazendo melhorias.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF34A853"/>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -456,21 +484,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF34A853"/>
           <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF34A853"/>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -542,32 +555,36 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$6" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,13 +727,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>333375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -774,13 +791,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -838,14 +855,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -902,13 +919,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -966,13 +983,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1030,13 +1047,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1149,6 +1166,65 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1358,8 +1434,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -1450,7 +1526,7 @@
       </c>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1461,50 +1537,50 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>45722</v>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="24" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" s="5">
+        <v>45722</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" s="24" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1515,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>45664</v>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -1533,14 +1609,14 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45664</v>
       </c>
@@ -1551,14 +1627,31 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45664</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -1627,73 +1720,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:F52">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$E23=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:E20 A15 C15:E15 A13:E14">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$D13=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15 C15:E15 A16:E16 A18:E21">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>$B13=VERDADEIRO</formula>
+  <conditionalFormatting sqref="A15 C15:E15 A16:E16 A18:E21 D1:D2">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>$B1048575=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:E17 A8:E8 A10:E10 A6:E6">
-    <cfRule type="expression" dxfId="10" priority="35">
+  <conditionalFormatting sqref="A17:E17 A9:E9 A11:E11 A7:E7">
+    <cfRule type="expression" dxfId="11" priority="38">
       <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="9" priority="78">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="10" priority="81">
       <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$C1048576=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2">
-    <cfRule type="expression" dxfId="6" priority="98">
-      <formula>$B1048575=VERDADEIRO</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 A2:C10 F2">
-    <cfRule type="expression" dxfId="5" priority="119">
+  <conditionalFormatting sqref="F2 A6:E11 A2:E4">
+    <cfRule type="expression" dxfId="7" priority="122">
       <formula>$C2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="4" priority="123">
-      <formula>$C2=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C5 E3:E5 A9:C9 E9 A7:C7 E7 D3:D7">
-    <cfRule type="expression" dxfId="3" priority="124">
+  <conditionalFormatting sqref="A10:C10 E10 A3:E4 A8:E8">
+    <cfRule type="expression" dxfId="6" priority="127">
       <formula>$D1=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="2" priority="128">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="5" priority="131">
       <formula>$D4=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:E13">
-    <cfRule type="expression" dxfId="1" priority="132">
-      <formula>$D6=VERDADEIRO</formula>
+  <conditionalFormatting sqref="A6:C6 E6 D6:D7 A14:E14">
+    <cfRule type="expression" dxfId="4" priority="149">
+      <formula>$D3=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:E14">
-    <cfRule type="expression" dxfId="0" priority="133">
-      <formula>$D10=VERDADEIRO</formula>
+  <conditionalFormatting sqref="A13:E13">
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>$D7=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:E5">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$C5=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D3=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:E5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$D2=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,13 +1853,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>333375</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1777,13 +1875,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>409575</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1799,14 +1897,14 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>314325</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1821,13 +1919,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1843,13 +1941,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1865,13 +1963,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>314325</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>409575</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1901,6 +1999,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId13" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>333375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
